--- a/NoteBook/task and schedule plans and actual/TASK_Oscar.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Oscar.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="19440" windowHeight="7695"/>
+    <workbookView xWindow="2460" yWindow="3760" windowWidth="19440" windowHeight="7700"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -263,10 +268,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -275,18 +280,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -294,7 +299,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -302,36 +307,36 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -355,6 +360,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -369,45 +413,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,91 +717,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="18">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="23">
         <v>41719</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" ht="16" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -819,7 +823,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -860,7 +864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -875,7 +879,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -890,7 +894,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -905,7 +909,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
@@ -920,7 +924,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
@@ -941,45 +945,45 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:15" ht="15" thickBot="1">
+      <c r="A14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="7">
         <v>1.5</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="10">
         <f>D14</f>
         <v>1.5</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="12">
-        <v>2</v>
-      </c>
-      <c r="H14" s="21">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
         <v>4.8</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="10">
         <f>I14</f>
         <v>4.8</v>
       </c>
-      <c r="K14" s="21">
-        <v>2</v>
-      </c>
-      <c r="L14" s="21">
+      <c r="K14" s="10">
+        <v>2</v>
+      </c>
+      <c r="L14" s="10">
         <f>K14</f>
         <v>2</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="10">
         <v>1</v>
       </c>
       <c r="N14" s="4">
@@ -989,43 +993,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="1:15" ht="15" thickBot="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="7">
         <v>0.25</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="10">
         <f>D15+E14</f>
         <v>1.75</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="7">
         <v>5</v>
       </c>
-      <c r="H15" s="21">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <v>0.8</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="10">
         <f>SUM(I15+J14)</f>
         <v>5.6</v>
       </c>
-      <c r="K15" s="21">
-        <v>1</v>
-      </c>
-      <c r="L15" s="21">
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10">
         <f>K15+L14</f>
         <v>3</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="10">
         <v>1</v>
       </c>
       <c r="N15" s="4">
@@ -1035,43 +1039,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="12" t="s">
+    <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="7">
         <v>0.25</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="10">
         <f t="shared" ref="E16:E35" si="0">D16+E15</f>
         <v>2</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="12">
-        <v>1</v>
-      </c>
-      <c r="H16" s="21">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <v>0.8</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="10">
         <f>SUM(I16+J15)</f>
         <v>6.3999999999999995</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="10">
         <v>0.5</v>
       </c>
-      <c r="L16" s="21">
-        <f t="shared" ref="L16:L25" si="1">K16+L15</f>
+      <c r="L16" s="10">
+        <f t="shared" ref="L16:L33" si="1">K16+L15</f>
         <v>3.5</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="10">
         <v>1</v>
       </c>
       <c r="N16" s="4">
@@ -1081,45 +1085,44 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:15" ht="15" thickBot="1">
+      <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21">
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="12">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3</v>
-      </c>
-      <c r="I17" s="12">
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
         <v>3.2</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="10">
         <v>14.899999999999999</v>
       </c>
-      <c r="K17" s="21">
-        <f t="shared" ref="K17" si="2">(G17*N17)/O17</f>
+      <c r="K17" s="10">
         <v>1.4</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="10">
         <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="10">
         <v>3</v>
       </c>
       <c r="N17" s="4">
@@ -1129,43 +1132,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="12" t="s">
+    <row r="18" spans="1:15" ht="15" thickBot="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21">
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="12">
-        <v>1</v>
-      </c>
-      <c r="H18" s="21">
-        <v>3</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
         <v>4.5</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="10">
         <v>18.599999999999998</v>
       </c>
-      <c r="K18" s="21">
-        <f>(D18*N18)/O18</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="L18" s="21">
+      <c r="K18" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="L18" s="10">
         <f t="shared" si="1"/>
-        <v>5.6272727272727279</v>
-      </c>
-      <c r="M18" s="21">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="M18" s="10">
         <v>3</v>
       </c>
       <c r="N18" s="4">
@@ -1175,43 +1177,42 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="12" t="s">
+    <row r="19" spans="1:15" ht="15" thickBot="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21">
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="12">
-        <v>1</v>
-      </c>
-      <c r="H19" s="21">
-        <v>3</v>
-      </c>
-      <c r="I19" s="12">
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
         <v>3.9</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="10">
         <v>19.099999999999998</v>
       </c>
-      <c r="K19" s="21">
-        <f t="shared" ref="K19:K24" si="3">(D19*N19)/O19</f>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="L19" s="21">
+      <c r="K19" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="L19" s="10">
         <f t="shared" si="1"/>
-        <v>7.0558441558441567</v>
-      </c>
-      <c r="M19" s="21">
+        <v>7</v>
+      </c>
+      <c r="M19" s="10">
         <v>3</v>
       </c>
       <c r="N19" s="4">
@@ -1221,45 +1222,44 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:15" ht="15" thickBot="1">
+      <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="7">
         <v>1.5</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="12">
-        <v>1</v>
-      </c>
-      <c r="H20" s="21">
-        <v>3</v>
-      </c>
-      <c r="I20" s="12">
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
         <v>1.7</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="10">
         <v>21.099999999999998</v>
       </c>
-      <c r="K20" s="21">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="21">
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10">
         <f t="shared" si="1"/>
-        <v>8.0558441558441558</v>
-      </c>
-      <c r="M20" s="21">
+        <v>8</v>
+      </c>
+      <c r="M20" s="10">
         <v>3</v>
       </c>
       <c r="N20" s="4">
@@ -1269,43 +1269,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="12" t="s">
+    <row r="21" spans="1:15" ht="15" thickBot="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="7">
         <v>0.5</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="12">
-        <v>1</v>
-      </c>
-      <c r="H21" s="21">
-        <v>3</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
         <v>1.9</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="10">
         <v>23.599999999999998</v>
       </c>
-      <c r="K21" s="21">
-        <f t="shared" si="3"/>
-        <v>0.43478260869565222</v>
-      </c>
-      <c r="L21" s="21">
+      <c r="K21" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L21" s="10">
         <f t="shared" si="1"/>
-        <v>8.4906267645398081</v>
-      </c>
-      <c r="M21" s="21">
+        <v>8.4</v>
+      </c>
+      <c r="M21" s="10">
         <v>3</v>
       </c>
       <c r="N21" s="4">
@@ -1315,43 +1314,42 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="11" t="s">
+    <row r="22" spans="1:15" ht="15" thickBot="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="7">
         <v>0.3</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>7.3</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="12">
-        <v>3</v>
-      </c>
-      <c r="H22" s="21">
-        <v>3</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="G22" s="7">
+        <v>3</v>
+      </c>
+      <c r="H22" s="10">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
         <v>1.7</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="10">
         <v>25.599999999999998</v>
       </c>
-      <c r="K22" s="21">
-        <f t="shared" si="3"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="L22" s="21">
+      <c r="K22" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="10">
         <f t="shared" si="1"/>
-        <v>8.6906267645398074</v>
-      </c>
-      <c r="M22" s="21">
+        <v>8.6</v>
+      </c>
+      <c r="M22" s="10">
         <v>3</v>
       </c>
       <c r="N22" s="4">
@@ -1361,43 +1359,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="12" t="s">
+    <row r="23" spans="1:15" ht="15" thickBot="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="7">
         <v>0.2</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="12">
-        <v>2</v>
-      </c>
-      <c r="H23" s="21">
-        <v>3</v>
-      </c>
-      <c r="I23" s="12">
+      <c r="G23" s="7">
+        <v>2</v>
+      </c>
+      <c r="H23" s="10">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
         <v>1.7</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="10">
         <v>27.099999999999998</v>
       </c>
-      <c r="K23" s="21">
-        <f t="shared" si="3"/>
-        <v>0.27272727272727282</v>
-      </c>
-      <c r="L23" s="21">
+      <c r="K23" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L23" s="10">
         <f t="shared" si="1"/>
-        <v>8.9633540372670808</v>
-      </c>
-      <c r="M23" s="21">
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="M23" s="10">
         <v>3</v>
       </c>
       <c r="N23" s="4">
@@ -1407,43 +1404,42 @@
         <v>2.1999999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="13" t="s">
+    <row r="24" spans="1:15" ht="15" thickBot="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="12">
-        <v>3</v>
-      </c>
-      <c r="E24" s="21">
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="7">
         <v>5</v>
       </c>
-      <c r="H24" s="21">
-        <v>3</v>
-      </c>
-      <c r="I24" s="12">
+      <c r="H24" s="10">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
         <v>9.6</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="10">
         <v>28.999999999999996</v>
       </c>
-      <c r="K24" s="21">
-        <f t="shared" si="3"/>
-        <v>3.2142857142857135</v>
-      </c>
-      <c r="L24" s="21">
+      <c r="K24" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="L24" s="10">
         <f t="shared" si="1"/>
-        <v>12.177639751552794</v>
-      </c>
-      <c r="M24" s="21">
+        <v>12.099999999999998</v>
+      </c>
+      <c r="M24" s="10">
         <v>3</v>
       </c>
       <c r="N24" s="4">
@@ -1453,43 +1449,42 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13" t="s">
+    <row r="25" spans="1:15" ht="15" thickBot="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="21">
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="12">
-        <v>2</v>
-      </c>
-      <c r="H25" s="21">
-        <v>3</v>
-      </c>
-      <c r="I25" s="12">
+      <c r="G25" s="7">
+        <v>2</v>
+      </c>
+      <c r="H25" s="10">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
         <v>0.6</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="10">
         <v>39</v>
       </c>
-      <c r="K25" s="21">
-        <f>(D25*N25)/O25</f>
+      <c r="K25" s="10">
         <v>0.8</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="10">
         <f t="shared" si="1"/>
-        <v>12.977639751552795</v>
-      </c>
-      <c r="M25" s="21">
+        <v>12.899999999999999</v>
+      </c>
+      <c r="M25" s="10">
         <v>3</v>
       </c>
       <c r="N25" s="4">
@@ -1499,369 +1494,441 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="13" t="s">
+    <row r="26" spans="1:15" ht="15" thickBot="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="12">
-        <v>2</v>
-      </c>
-      <c r="E26" s="21">
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="12">
-        <v>1</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="12">
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
         <v>1.3</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="10">
         <v>47</v>
       </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
+      <c r="K26" s="10">
+        <v>3</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="M26" s="10">
+        <v>4</v>
+      </c>
       <c r="N26" s="4"/>
       <c r="O26" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="13" t="s">
+    <row r="27" spans="1:15" ht="15" thickBot="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="12">
-        <v>2</v>
-      </c>
-      <c r="E27" s="21">
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="12">
-        <v>1</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="12">
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>4</v>
+      </c>
+      <c r="I27" s="7">
         <v>1.3</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="10">
         <v>48.3</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="K27" s="10">
+        <v>2</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M27" s="10">
+        <v>4</v>
+      </c>
       <c r="O27" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="13" t="s">
+    <row r="28" spans="1:15" ht="15" thickBot="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="12">
-        <v>2</v>
-      </c>
-      <c r="E28" s="21">
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="12">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="12">
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>4</v>
+      </c>
+      <c r="I28" s="7">
         <v>1.3</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="10">
         <v>49.599999999999994</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="K28" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="1"/>
+        <v>21.4</v>
+      </c>
+      <c r="M28" s="10">
+        <v>4</v>
+      </c>
       <c r="O28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="13" t="s">
+    <row r="29" spans="1:15" ht="15" thickBot="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="12">
-        <v>2</v>
-      </c>
-      <c r="E29" s="21">
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10">
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="7">
         <v>0.7</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="12">
+      <c r="H29" s="10">
+        <v>4</v>
+      </c>
+      <c r="I29" s="7">
         <v>2.6</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="10">
         <v>54.599999999999994</v>
       </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="K29" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="1"/>
+        <v>25.9</v>
+      </c>
+      <c r="M29" s="10">
+        <v>4</v>
+      </c>
       <c r="O29" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="13" t="s">
+    <row r="30" spans="1:15" ht="15" thickBot="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="12">
-        <v>4</v>
-      </c>
-      <c r="E30" s="21">
+      <c r="D30" s="7">
+        <v>4</v>
+      </c>
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="7">
         <v>525</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="12">
+      <c r="H30" s="10">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7">
         <v>18.899999999999999</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="10">
         <v>56.599999999999994</v>
       </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="K30" s="10">
+        <v>27.6</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="1"/>
+        <v>53.5</v>
+      </c>
+      <c r="M30" s="10">
+        <v>4</v>
+      </c>
       <c r="O30" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="13" t="s">
+    <row r="31" spans="1:15" ht="15" thickBot="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
-      <c r="E31" s="21">
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="12">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="10">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
         <v>3.9</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="10">
         <v>63.499999999999986</v>
       </c>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10">
+        <f t="shared" si="1"/>
+        <v>54.5</v>
+      </c>
+      <c r="M31" s="10">
+        <v>4</v>
+      </c>
       <c r="O31" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="13" t="s">
+    <row r="32" spans="1:15" ht="15" thickBot="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="12">
-        <v>2</v>
-      </c>
-      <c r="E32" s="21">
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="10">
         <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="12">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="10">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7">
         <v>3.9</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="10">
         <v>81.099999999999994</v>
       </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
+      <c r="K32" s="10">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="1"/>
+        <v>56.5</v>
+      </c>
+      <c r="M32" s="10">
+        <v>4</v>
+      </c>
       <c r="O32" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="13" t="s">
+    <row r="33" spans="1:15" ht="15" thickBot="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="12">
-        <v>3</v>
-      </c>
-      <c r="E33" s="21">
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="10">
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="7">
         <v>10</v>
       </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="12">
+      <c r="H33" s="10">
+        <v>4</v>
+      </c>
+      <c r="I33" s="7">
         <v>2.6</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="10">
         <v>82.399999999999991</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="K33" s="10">
+        <v>4</v>
+      </c>
+      <c r="L33" s="10">
+        <f t="shared" si="1"/>
+        <v>60.5</v>
+      </c>
+      <c r="M33" s="10">
+        <v>4</v>
+      </c>
       <c r="O33" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:15" ht="15" thickBot="1">
+      <c r="A34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="12">
-        <v>2</v>
-      </c>
-      <c r="E34" s="21">
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10">
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="7">
         <v>5</v>
       </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="12">
+      <c r="H34" s="10"/>
+      <c r="I34" s="7">
         <v>5.8</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="10">
         <v>83.1</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="13" t="s">
+    <row r="35" spans="1:15" ht="15" thickBot="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="12">
-        <v>2</v>
-      </c>
-      <c r="E35" s="21">
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="7">
         <v>5</v>
       </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="12">
+      <c r="H35" s="10"/>
+      <c r="I35" s="7">
         <v>6.4</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="10">
         <v>86.399999999999991</v>
       </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
       <c r="O35" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="23">
+    <row r="36" spans="1:15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="11">
         <f>SUM(D14:D35)</f>
         <v>33.5</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="21">
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10">
         <f>SUM(I14:I35)</f>
         <v>83.199999999999989</v>
       </c>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E8:E13"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="J8:J13"/>
     <mergeCell ref="H8:H13"/>
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
@@ -1872,12 +1939,16 @@
     <mergeCell ref="M8:M13"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="G8:G13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="J8:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1889,9 +1960,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1901,8 +1977,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/NoteBook/task and schedule plans and actual/TASK_Oscar.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Oscar.xlsx
@@ -378,41 +378,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -738,12 +738,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2"/>
@@ -752,76 +752,76 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="16">
         <v>41719</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="17" t="s">
@@ -830,7 +830,7 @@
       <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -839,7 +839,7 @@
       <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="17" t="s">
@@ -867,10 +867,10 @@
     <row r="9" spans="1:15">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -882,10 +882,10 @@
     <row r="10" spans="1:15">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -897,10 +897,10 @@
     <row r="11" spans="1:15">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -912,10 +912,10 @@
     <row r="12" spans="1:15">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -927,10 +927,10 @@
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -946,7 +946,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="9"/>
@@ -994,7 +994,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1">
-      <c r="A15" s="12"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
         <v>25</v>
@@ -1040,7 +1040,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="12"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="9"/>
       <c r="C16" s="7" t="s">
         <v>26</v>
@@ -1086,7 +1086,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="9"/>
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="9"/>
       <c r="C18" s="7" t="s">
         <v>28</v>
@@ -1178,7 +1178,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="9"/>
       <c r="C19" s="7" t="s">
         <v>29</v>
@@ -1223,7 +1223,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="9"/>
@@ -1270,7 +1270,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="9"/>
       <c r="C21" s="7" t="s">
         <v>51</v>
@@ -1315,7 +1315,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1">
-      <c r="A22" s="13"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="9"/>
       <c r="C22" s="6" t="s">
         <v>31</v>
@@ -1360,7 +1360,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1">
-      <c r="A23" s="13"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="9"/>
       <c r="C23" s="7" t="s">
         <v>32</v>
@@ -1405,7 +1405,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1">
-      <c r="A24" s="13"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8" t="s">
         <v>33</v>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1">
-      <c r="A25" s="13"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8" t="s">
         <v>52</v>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1">
-      <c r="A26" s="13"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8" t="s">
         <v>53</v>
@@ -1538,7 +1538,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1">
-      <c r="A27" s="13"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8" t="s">
         <v>43</v>
@@ -1580,7 +1580,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1">
-      <c r="A28" s="13"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="9"/>
       <c r="C28" s="8" t="s">
         <v>54</v>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1">
-      <c r="A29" s="13"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="9"/>
       <c r="C29" s="8" t="s">
         <v>55</v>
@@ -1664,7 +1664,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1">
-      <c r="A30" s="13"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="9"/>
       <c r="C30" s="8" t="s">
         <v>34</v>
@@ -1692,11 +1692,11 @@
         <v>56.599999999999994</v>
       </c>
       <c r="K30" s="10">
-        <v>27.6</v>
+        <v>20</v>
       </c>
       <c r="L30" s="10">
         <f t="shared" si="1"/>
-        <v>53.5</v>
+        <v>45.9</v>
       </c>
       <c r="M30" s="10">
         <v>4</v>
@@ -1706,7 +1706,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1">
-      <c r="A31" s="13"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="9"/>
       <c r="C31" s="8" t="s">
         <v>44</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="L31" s="10">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>46.9</v>
       </c>
       <c r="M31" s="10">
         <v>4</v>
@@ -1744,7 +1744,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1">
-      <c r="A32" s="13"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="9"/>
       <c r="C32" s="8" t="s">
         <v>45</v>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="L32" s="10">
         <f t="shared" si="1"/>
-        <v>56.5</v>
+        <v>48.9</v>
       </c>
       <c r="M32" s="10">
         <v>4</v>
@@ -1782,7 +1782,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1">
-      <c r="A33" s="13"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="9"/>
       <c r="C33" s="8" t="s">
         <v>46</v>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="L33" s="10">
         <f t="shared" si="1"/>
-        <v>60.5</v>
+        <v>52.9</v>
       </c>
       <c r="M33" s="10">
         <v>4</v>
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="9"/>
@@ -1859,7 +1859,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1">
-      <c r="A35" s="13"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="9"/>
       <c r="C35" s="8" t="s">
         <v>36</v>
@@ -1914,18 +1914,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E8:E13"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A33"/>
     <mergeCell ref="A34:A35"/>
@@ -1942,6 +1930,18 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="J8:J13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/NoteBook/task and schedule plans and actual/TASK_Oscar.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Oscar.xlsx
@@ -345,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -378,41 +378,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -738,12 +741,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2"/>
@@ -752,192 +755,192 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="24">
         <v>41719</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="18" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="1" t="s">
         <v>48</v>
       </c>
@@ -946,7 +949,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="9"/>
@@ -994,7 +997,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1">
-      <c r="A15" s="21"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
         <v>25</v>
@@ -1040,7 +1043,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="9"/>
       <c r="C16" s="7" t="s">
         <v>26</v>
@@ -1072,7 +1075,7 @@
         <v>0.5</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" ref="L16:L33" si="1">K16+L15</f>
+        <f t="shared" ref="L16:L35" si="1">K16+L15</f>
         <v>3.5</v>
       </c>
       <c r="M16" s="10">
@@ -1086,7 +1089,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="9"/>
@@ -1133,7 +1136,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="9"/>
       <c r="C18" s="7" t="s">
         <v>28</v>
@@ -1178,7 +1181,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1">
-      <c r="A19" s="22"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="9"/>
       <c r="C19" s="7" t="s">
         <v>29</v>
@@ -1223,7 +1226,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="9"/>
@@ -1270,7 +1273,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1">
-      <c r="A21" s="22"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="9"/>
       <c r="C21" s="7" t="s">
         <v>51</v>
@@ -1315,7 +1318,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1">
-      <c r="A22" s="22"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="9"/>
       <c r="C22" s="6" t="s">
         <v>31</v>
@@ -1360,7 +1363,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1">
-      <c r="A23" s="22"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="9"/>
       <c r="C23" s="7" t="s">
         <v>32</v>
@@ -1405,7 +1408,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1">
-      <c r="A24" s="22"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8" t="s">
         <v>33</v>
@@ -1450,7 +1453,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1">
-      <c r="A25" s="22"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8" t="s">
         <v>52</v>
@@ -1495,7 +1498,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1">
-      <c r="A26" s="22"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8" t="s">
         <v>53</v>
@@ -1538,7 +1541,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1">
-      <c r="A27" s="22"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8" t="s">
         <v>43</v>
@@ -1580,7 +1583,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1">
-      <c r="A28" s="22"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="9"/>
       <c r="C28" s="8" t="s">
         <v>54</v>
@@ -1622,7 +1625,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1">
-      <c r="A29" s="22"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="9"/>
       <c r="C29" s="8" t="s">
         <v>55</v>
@@ -1664,7 +1667,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1">
-      <c r="A30" s="22"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="9"/>
       <c r="C30" s="8" t="s">
         <v>34</v>
@@ -1706,7 +1709,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1">
-      <c r="A31" s="22"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="9"/>
       <c r="C31" s="8" t="s">
         <v>44</v>
@@ -1737,14 +1740,14 @@
         <v>46.9</v>
       </c>
       <c r="M31" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O31" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1">
-      <c r="A32" s="22"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="9"/>
       <c r="C32" s="8" t="s">
         <v>45</v>
@@ -1775,14 +1778,14 @@
         <v>48.9</v>
       </c>
       <c r="M32" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O32" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1">
-      <c r="A33" s="22"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="9"/>
       <c r="C33" s="8" t="s">
         <v>46</v>
@@ -1812,19 +1815,19 @@
       <c r="K33" s="10">
         <v>4</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="12">
         <f t="shared" si="1"/>
         <v>52.9</v>
       </c>
       <c r="M33" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O33" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="9"/>
@@ -1851,15 +1854,22 @@
       <c r="J34" s="10">
         <v>83.1</v>
       </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="K34" s="10">
+        <v>2</v>
+      </c>
+      <c r="L34" s="12">
+        <f t="shared" si="1"/>
+        <v>54.9</v>
+      </c>
+      <c r="M34" s="10">
+        <v>6</v>
+      </c>
       <c r="O34" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="9"/>
       <c r="C35" s="8" t="s">
         <v>36</v>
@@ -1884,9 +1894,16 @@
       <c r="J35" s="10">
         <v>86.399999999999991</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="K35" s="10">
+        <v>2</v>
+      </c>
+      <c r="L35" s="12">
+        <f t="shared" si="1"/>
+        <v>56.9</v>
+      </c>
+      <c r="M35" s="10">
+        <v>6</v>
+      </c>
       <c r="O35" s="5">
         <v>5</v>
       </c>
@@ -1914,6 +1931,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E8:E13"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A33"/>
     <mergeCell ref="A34:A35"/>
@@ -1930,18 +1959,6 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="J8:J13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/NoteBook/task and schedule plans and actual/TASK_Oscar.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Oscar.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabiánEduardo\Documents\GitHub\tsp\NoteBook\task and schedule plans and actual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="3760" windowWidth="19440" windowHeight="7700"/>
+    <workbookView xWindow="2460" yWindow="3765" windowWidth="19440" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -381,41 +386,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,6 +431,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -720,120 +728,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="16" thickBot="1">
+    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="17">
         <v>41719</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:15" ht="16" thickBot="1">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:15" ht="16" thickBot="1">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20">
-        <v>1</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1">
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -842,7 +850,7 @@
       <c r="E8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="24" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="18" t="s">
@@ -867,13 +875,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -882,13 +890,13 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -897,13 +905,13 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -912,13 +920,13 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -927,13 +935,13 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1">
+    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -948,8 +956,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="9"/>
@@ -996,8 +1004,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
         <v>25</v>
@@ -1042,8 +1050,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
       <c r="B16" s="9"/>
       <c r="C16" s="7" t="s">
         <v>26</v>
@@ -1088,8 +1096,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="9"/>
@@ -1135,8 +1143,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
       <c r="B18" s="9"/>
       <c r="C18" s="7" t="s">
         <v>28</v>
@@ -1180,8 +1188,8 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
       <c r="B19" s="9"/>
       <c r="C19" s="7" t="s">
         <v>29</v>
@@ -1225,8 +1233,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="9"/>
@@ -1272,8 +1280,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
       <c r="B21" s="9"/>
       <c r="C21" s="7" t="s">
         <v>51</v>
@@ -1317,8 +1325,8 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
       <c r="B22" s="9"/>
       <c r="C22" s="6" t="s">
         <v>31</v>
@@ -1362,8 +1370,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
       <c r="B23" s="9"/>
       <c r="C23" s="7" t="s">
         <v>32</v>
@@ -1407,8 +1415,8 @@
         <v>2.1999999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8" t="s">
         <v>33</v>
@@ -1452,8 +1460,8 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8" t="s">
         <v>52</v>
@@ -1497,8 +1505,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8" t="s">
         <v>53</v>
@@ -1540,8 +1548,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8" t="s">
         <v>43</v>
@@ -1582,8 +1590,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
       <c r="B28" s="9"/>
       <c r="C28" s="8" t="s">
         <v>54</v>
@@ -1624,8 +1632,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
       <c r="B29" s="9"/>
       <c r="C29" s="8" t="s">
         <v>55</v>
@@ -1666,8 +1674,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
       <c r="B30" s="9"/>
       <c r="C30" s="8" t="s">
         <v>34</v>
@@ -1695,11 +1703,11 @@
         <v>56.599999999999994</v>
       </c>
       <c r="K30" s="10">
-        <v>20</v>
+        <v>5.4</v>
       </c>
       <c r="L30" s="10">
         <f t="shared" si="1"/>
-        <v>45.9</v>
+        <v>31.299999999999997</v>
       </c>
       <c r="M30" s="10">
         <v>4</v>
@@ -1708,8 +1716,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
       <c r="B31" s="9"/>
       <c r="C31" s="8" t="s">
         <v>44</v>
@@ -1737,7 +1745,7 @@
       </c>
       <c r="L31" s="10">
         <f t="shared" si="1"/>
-        <v>46.9</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="M31" s="10">
         <v>5</v>
@@ -1746,8 +1754,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
       <c r="B32" s="9"/>
       <c r="C32" s="8" t="s">
         <v>45</v>
@@ -1775,7 +1783,7 @@
       </c>
       <c r="L32" s="10">
         <f t="shared" si="1"/>
-        <v>48.9</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="M32" s="10">
         <v>5</v>
@@ -1784,8 +1792,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
       <c r="B33" s="9"/>
       <c r="C33" s="8" t="s">
         <v>46</v>
@@ -1817,7 +1825,7 @@
       </c>
       <c r="L33" s="12">
         <f t="shared" si="1"/>
-        <v>52.9</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M33" s="10">
         <v>5</v>
@@ -1826,8 +1834,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="9"/>
@@ -1859,7 +1867,7 @@
       </c>
       <c r="L34" s="12">
         <f t="shared" si="1"/>
-        <v>54.9</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="M34" s="10">
         <v>6</v>
@@ -1868,8 +1876,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
       <c r="B35" s="9"/>
       <c r="C35" s="8" t="s">
         <v>36</v>
@@ -1899,7 +1907,7 @@
       </c>
       <c r="L35" s="12">
         <f t="shared" si="1"/>
-        <v>56.9</v>
+        <v>42.3</v>
       </c>
       <c r="M35" s="10">
         <v>6</v>
@@ -1908,7 +1916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1931,18 +1939,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E8:E13"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A33"/>
     <mergeCell ref="A34:A35"/>
@@ -1959,6 +1955,18 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="J8:J13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1977,7 +1985,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1994,7 +2002,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
